--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Npr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H2">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="J2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.9231273333333333</v>
+        <v>0.912887</v>
       </c>
       <c r="N2">
-        <v>2.769382</v>
+        <v>2.738661</v>
       </c>
       <c r="O2">
-        <v>0.3911636608376866</v>
+        <v>0.3341311666818157</v>
       </c>
       <c r="P2">
-        <v>0.3911636608376867</v>
+        <v>0.3341311666818156</v>
       </c>
       <c r="Q2">
-        <v>0.173659637074</v>
+        <v>0.1728375043013334</v>
       </c>
       <c r="R2">
-        <v>1.562936733666</v>
+        <v>1.555537538712</v>
       </c>
       <c r="S2">
-        <v>0.3911636608376866</v>
+        <v>0.2107753703053925</v>
       </c>
       <c r="T2">
-        <v>0.3911636608376867</v>
+        <v>0.2107753703053925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H3">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.906408</v>
       </c>
       <c r="O3">
-        <v>0.5517638426210706</v>
+        <v>0.4766024939104103</v>
       </c>
       <c r="P3">
-        <v>0.5517638426210707</v>
+        <v>0.4766024939104103</v>
       </c>
       <c r="Q3">
-        <v>0.244959126456</v>
+        <v>0.2465342769706667</v>
       </c>
       <c r="R3">
-        <v>2.204632138104</v>
+        <v>2.218808492736</v>
       </c>
       <c r="S3">
-        <v>0.5517638426210706</v>
+        <v>0.3006485989919701</v>
       </c>
       <c r="T3">
-        <v>0.5517638426210707</v>
+        <v>0.3006485989919701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,46 +658,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H4">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I4">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="J4">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="M4">
+        <v>0.5170986666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.551296</v>
+      </c>
+      <c r="O4">
+        <v>0.1892663394077741</v>
+      </c>
+      <c r="P4">
+        <v>0.189266339407774</v>
+      </c>
+      <c r="Q4">
+        <v>0.09790263529244446</v>
+      </c>
+      <c r="R4">
+        <v>0.881123717632</v>
+      </c>
+      <c r="S4">
+        <v>0.1193922828905345</v>
+      </c>
+      <c r="T4">
+        <v>0.1193922828905345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.332416</v>
+      </c>
+      <c r="I5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="M5">
+        <v>0.912887</v>
+      </c>
+      <c r="N5">
+        <v>2.738661</v>
+      </c>
+      <c r="O5">
+        <v>0.3341311666818157</v>
+      </c>
+      <c r="P5">
+        <v>0.3341311666818156</v>
+      </c>
+      <c r="Q5">
+        <v>0.1011527483306667</v>
+      </c>
+      <c r="R5">
+        <v>0.910374734976</v>
+      </c>
+      <c r="S5">
+        <v>0.1233557963764232</v>
+      </c>
+      <c r="T5">
+        <v>0.1233557963764231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.332416</v>
+      </c>
+      <c r="I6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1346883333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.404065</v>
-      </c>
-      <c r="O4">
-        <v>0.05707249654124272</v>
-      </c>
-      <c r="P4">
-        <v>0.05707249654124273</v>
-      </c>
-      <c r="Q4">
-        <v>0.025337703955</v>
-      </c>
-      <c r="R4">
-        <v>0.228039335595</v>
-      </c>
-      <c r="S4">
-        <v>0.05707249654124272</v>
-      </c>
-      <c r="T4">
-        <v>0.05707249654124273</v>
+      <c r="M6">
+        <v>1.302136</v>
+      </c>
+      <c r="N6">
+        <v>3.906408</v>
+      </c>
+      <c r="O6">
+        <v>0.4766024939104103</v>
+      </c>
+      <c r="P6">
+        <v>0.4766024939104103</v>
+      </c>
+      <c r="Q6">
+        <v>0.1442836135253333</v>
+      </c>
+      <c r="R6">
+        <v>1.298552521728</v>
+      </c>
+      <c r="S6">
+        <v>0.1759538949184402</v>
+      </c>
+      <c r="T6">
+        <v>0.1759538949184402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.332416</v>
+      </c>
+      <c r="I7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5170986666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.551296</v>
+      </c>
+      <c r="O7">
+        <v>0.1892663394077741</v>
+      </c>
+      <c r="P7">
+        <v>0.189266339407774</v>
+      </c>
+      <c r="Q7">
+        <v>0.05729729012622222</v>
+      </c>
+      <c r="R7">
+        <v>0.515675611136</v>
+      </c>
+      <c r="S7">
+        <v>0.06987405651723953</v>
+      </c>
+      <c r="T7">
+        <v>0.06987405651723952</v>
       </c>
     </row>
   </sheetData>
